--- a/Carlos-SVMClassifier/Tabela Resultados.xlsx
+++ b/Carlos-SVMClassifier/Tabela Resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="33">
   <si>
     <t xml:space="preserve">Métrica</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">Péssimo ou Ruim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,12 +244,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -412,7 +403,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,10 +426,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -610,8 +597,8 @@
   </sheetPr>
   <dimension ref="D5:U119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D78" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G90" activeCellId="0" sqref="G90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D78" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I98" activeCellId="0" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -625,7 +612,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.87"/>
@@ -1248,7 +1235,7 @@
       <c r="S71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T71" s="6" t="s">
+      <c r="T71" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1454,7 +1441,7 @@
       <c r="S106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T106" s="6" t="s">
+      <c r="T106" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1534,7 +1521,7 @@
       <c r="G110" s="3" t="n">
         <v>0.7945</v>
       </c>
-      <c r="P110" s="6" t="s">
+      <c r="P110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q110" s="3" t="n">
@@ -2033,8 +2020,8 @@
   </sheetPr>
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2043,6 +2030,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2234,7 +2222,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">1-(SUM(C20:C21)/SUM(C19:C21)*100)%</f>
@@ -2307,14 +2295,16 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +2499,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2587,16 +2577,17 @@
   </sheetPr>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Carlos-SVMClassifier/Tabela Resultados.xlsx
+++ b/Carlos-SVMClassifier/Tabela Resultados.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="33">
   <si>
     <t xml:space="preserve">Métrica</t>
   </si>
@@ -403,7 +403,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,6 +426,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -597,7 +601,7 @@
   </sheetPr>
   <dimension ref="D5:U119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D78" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D78" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I98" activeCellId="0" sqref="I98"/>
     </sheetView>
   </sheetViews>
@@ -612,7 +616,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.87"/>
@@ -2018,10 +2022,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2241,6 +2245,137 @@
         <v>0.8075</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">C28/SUM(C28:F28)</f>
+        <v>0.846153846153846</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">D29/SUM(C29:F29)</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <f aca="false">E30/SUM(C30:F30)</f>
+        <v>0.836206896551724</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <f aca="false">F31/SUM(C31:F31)</f>
+        <v>0.876106194690265</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <f aca="false">1-(SUM(C29:C31)/SUM(C28:C31)*100)%</f>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <f aca="false">1-(SUM(D28,D30:D31)/SUM(D28:D31)*100)%</f>
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <f aca="false">1-(SUM(E28:E29,E31)/SUM(E28:E31)*100)%</f>
+        <v>0.808333333333333</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <f aca="false">1-(SUM(F28:F30)/SUM(F28:F31)*100)%</f>
+        <v>0.876106194690265</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <f aca="false">(SUM(C28,D29,E30,F31)/SUM(C28:F31))</f>
+        <v>0.825783972125435</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="C14:G14">
     <cfRule type="colorScale" priority="2">
@@ -2275,6 +2410,42 @@
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:F32">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2295,7 +2466,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2499,7 +2670,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2577,13 +2748,13 @@
   </sheetPr>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="19.44"/>

--- a/Carlos-SVMClassifier/Tabela Resultados.xlsx
+++ b/Carlos-SVMClassifier/Tabela Resultados.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas vitoriano\Desktop\ProjetoPecem\Carlos-SVMClassifier\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1BD7E-B6CE-4EC2-A981-8E6FA7FA278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Desvio Padrão(10,10)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Erro Quadrado Médio(20,20)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="EME(20,20)" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Desvio Padrão(10,10)" sheetId="2" r:id="rId2"/>
+    <sheet name="PNSR" sheetId="5" r:id="rId3"/>
+    <sheet name="Erro Quadrado Médio(20,20)" sheetId="3" r:id="rId4"/>
+    <sheet name="EME(20,20)" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,72 +39,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="44">
   <si>
-    <t xml:space="preserve">Métrica</t>
+    <t>Métrica</t>
   </si>
   <si>
-    <t xml:space="preserve">Parâmetro</t>
+    <t>Parâmetro</t>
   </si>
   <si>
-    <t xml:space="preserve">Acurácia</t>
+    <t>Acurácia</t>
   </si>
   <si>
-    <t xml:space="preserve">Variância do Laplaciano</t>
+    <t>Variância do Laplaciano</t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Var. Laplaciano</t>
+    <t>Var. Laplaciano</t>
   </si>
   <si>
-    <t xml:space="preserve">EME(20,20)</t>
+    <t>EME(20,20)</t>
   </si>
   <si>
-    <t xml:space="preserve">EMEE(50,50)</t>
+    <t>EMEE(50,50)</t>
   </si>
   <si>
-    <t xml:space="preserve">Desvio Padrão(10,10)</t>
+    <t>Desvio Padrão(10,10)</t>
   </si>
   <si>
-    <t xml:space="preserve">Erro quadrado médio(20,20)</t>
+    <t>Erro quadrado médio(20,20)</t>
   </si>
   <si>
-    <t xml:space="preserve">EME</t>
+    <t>EME</t>
   </si>
   <si>
-    <t xml:space="preserve">(5,5)</t>
+    <t>(5,5)</t>
   </si>
   <si>
-    <t xml:space="preserve">(10,10)</t>
+    <t>(10,10)</t>
   </si>
   <si>
-    <t xml:space="preserve">(20,20)</t>
+    <t>(20,20)</t>
   </si>
   <si>
-    <t xml:space="preserve">(50,50)</t>
+    <t>(50,50)</t>
   </si>
   <si>
-    <t xml:space="preserve">EMEE</t>
+    <t>EMEE</t>
   </si>
   <si>
-    <t xml:space="preserve">Desvio Padrão</t>
+    <t>Desvio Padrão</t>
   </si>
   <si>
-    <t xml:space="preserve">Erro quadrado médio</t>
+    <t>Erro quadrado médio</t>
   </si>
   <si>
-    <t xml:space="preserve">EMESTD(10,10)</t>
+    <t>EMESTD(10,10)</t>
   </si>
   <si>
-    <t xml:space="preserve">EMESTD</t>
+    <t>EMESTD</t>
   </si>
   <si>
-    <t xml:space="preserve">Predição\Realidade</t>
+    <t>Predição\Realidade</t>
   </si>
   <si>
     <t xml:space="preserve"> Péssimo</t>
@@ -103,37 +119,65 @@
     <t xml:space="preserve"> Excelente</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Péssimo</t>
+    <t>Péssimo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruim</t>
+    <t>Ruim</t>
   </si>
   <si>
-    <t xml:space="preserve">Bom</t>
+    <t>Bom</t>
   </si>
   <si>
-    <t xml:space="preserve">Excelente</t>
+    <t>Excelente</t>
   </si>
   <si>
     <t xml:space="preserve"> Péssimo ou Ruim</t>
   </si>
   <si>
-    <t xml:space="preserve">Péssimo ou Ruim</t>
+    <t>Péssimo ou Ruim</t>
+  </si>
+  <si>
+    <t>PNSR(20,20)</t>
+  </si>
+  <si>
+    <t>PNSR(40,40)</t>
+  </si>
+  <si>
+    <t>ANC(20,20)</t>
+  </si>
+  <si>
+    <t>ANC(40,40)</t>
+  </si>
+  <si>
+    <t>STD(20,20)</t>
+  </si>
+  <si>
+    <t>STD(40,40)</t>
+  </si>
+  <si>
+    <t>Lap(20,20)</t>
+  </si>
+  <si>
+    <t>Lap(40,40)</t>
+  </si>
+  <si>
+    <t>EME(40,40)</t>
+  </si>
+  <si>
+    <t>sobel(20,20)</t>
+  </si>
+  <si>
+    <t>sobel(40,40)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-  </numFmts>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -143,28 +187,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -179,7 +208,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -187,7 +216,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
@@ -216,7 +245,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -224,7 +253,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Calibri"/>
@@ -241,6 +270,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -297,14 +341,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -319,149 +363,80 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="18">
+    <cellStyle name="Accent 1 17" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 16" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 2 18" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 3 19" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 13" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 15" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 8" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 11" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading 1 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink 9" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Neutral 12" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 17" xfId="20"/>
-    <cellStyle name="Accent 16" xfId="21"/>
-    <cellStyle name="Accent 2 18" xfId="22"/>
-    <cellStyle name="Accent 3 19" xfId="23"/>
-    <cellStyle name="Bad 13" xfId="24"/>
-    <cellStyle name="Error 15" xfId="25"/>
-    <cellStyle name="Footnote 8" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading 1 4" xfId="28"/>
-    <cellStyle name="Heading 2 5" xfId="29"/>
-    <cellStyle name="Heading 3" xfId="30"/>
-    <cellStyle name="Hyperlink 9" xfId="31"/>
-    <cellStyle name="Neutral 12" xfId="32"/>
-    <cellStyle name="Note 7" xfId="33"/>
-    <cellStyle name="Status 10" xfId="34"/>
-    <cellStyle name="Text 6" xfId="35"/>
-    <cellStyle name="Warning 14" xfId="36"/>
+    <cellStyle name="Note 7" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Status 10" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Text 6" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Warning 14" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -520,119 +495,433 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="E9:G26" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="E9:G26" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Métrica"/>
-    <tableColumn id="2" name="Parâmetro"/>
-    <tableColumn id="3" name="Acurácia"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Métrica"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parâmetro"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Acurácia"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="E45:G62" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="E45:G62" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Métrica"/>
-    <tableColumn id="2" name="Parâmetro"/>
-    <tableColumn id="3" name="Acurácia"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Métrica"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Parâmetro"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Acurácia"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela5" displayName="Tabela5" ref="H1:K5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Predição\Realidade"/>
-    <tableColumn id="2" name="Péssimo ou Ruim"/>
-    <tableColumn id="3" name="Bom"/>
-    <tableColumn id="4" name="Excelente"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela6" displayName="Tabela6" ref="P10:U15" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Var. Laplaciano"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="EME(20,20)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EMEE(50,50)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Desvio Padrão(10,10)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Erro quadrado médio(20,20)"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela55" displayName="Tabela55" ref="A1:E6" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" name="Predição\Realidade"/>
-    <tableColumn id="2" name="Péssimo"/>
-    <tableColumn id="3" name="Ruim"/>
-    <tableColumn id="4" name="Bom"/>
-    <tableColumn id="5" name="Excelente"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="P45:U50" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name=" "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Var. Laplaciano"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="EME(20,20)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="EMEE(50,50)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Desvio Padrão(10,10)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Erro quadrado médio(20,20)"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela6" displayName="Tabela6" ref="P10:U15" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Var. Laplaciano"/>
-    <tableColumn id="3" name="EME(20,20)"/>
-    <tableColumn id="4" name="EMEE(50,50)"/>
-    <tableColumn id="5" name="Desvio Padrão(10,10)"/>
-    <tableColumn id="6" name="Erro quadrado médio(20,20)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela5" displayName="Tabela5" ref="H1:K5" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Predição\Realidade"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Péssimo ou Ruim"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Bom"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Excelente"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela7" displayName="Tabela7" ref="P45:U50" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="Var. Laplaciano"/>
-    <tableColumn id="3" name="EME(20,20)"/>
-    <tableColumn id="4" name="EMEE(50,50)"/>
-    <tableColumn id="5" name="Desvio Padrão(10,10)"/>
-    <tableColumn id="6" name="Erro quadrado médio(20,20)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela55" displayName="Tabela55" ref="A1:E6" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Predição\Realidade"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Péssimo"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Ruim"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Bom"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Excelente"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:U119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D78" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I98" activeCellId="0" sqref="I98"/>
+    <sheetView topLeftCell="D78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="23" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.71"/>
+    <col min="1" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" customWidth="1"/>
+    <col min="22" max="22" width="2.28515625" customWidth="1"/>
+    <col min="23" max="28" width="25.85546875" customWidth="1"/>
+    <col min="29" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -644,14 +933,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>0.4289</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -673,254 +962,254 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>0.4939</v>
+      <c r="G11" s="3">
+        <v>0.49390000000000001</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="3">
         <v>0.4289</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>0.4752</v>
+      <c r="G12" s="3">
+        <v>0.47520000000000001</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="3">
         <v>0.4955</v>
       </c>
-      <c r="R12" s="3" t="n">
-        <v>0.5571</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R12" s="3">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>0.5571</v>
+      <c r="G13" s="3">
+        <v>0.55710000000000004</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="3" t="n">
-        <v>0.3688</v>
-      </c>
-      <c r="R13" s="3" t="n">
+      <c r="Q13" s="3">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="R13" s="3">
         <v>0.52</v>
       </c>
-      <c r="S13" s="3" t="n">
-        <v>0.3844</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="5"/>
+      <c r="S13" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>0.5259</v>
+      <c r="G14" s="3">
+        <v>0.52590000000000003</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="3">
         <v>0.6048</v>
       </c>
-      <c r="R14" s="3" t="n">
-        <v>0.5769</v>
-      </c>
-      <c r="S14" s="3" t="n">
-        <v>0.5024</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>0.6227</v>
-      </c>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R14" s="3">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>0.3581</v>
+      <c r="G15" s="3">
+        <v>0.35809999999999997</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3" t="n">
-        <v>0.6049</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>0.6451</v>
-      </c>
-      <c r="S15" s="3" t="n">
+      <c r="Q15" s="3">
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="S15" s="3">
         <v>0.625</v>
       </c>
-      <c r="T15" s="3" t="n">
-        <v>0.6559</v>
-      </c>
-      <c r="U15" s="3" t="n">
+      <c r="T15" s="3">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="U15" s="3">
         <v>0.6845</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>0.3739</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="3">
+        <v>0.37390000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>0.3113</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="3">
+        <v>0.31130000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>0.3844</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>0.5616</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="3">
+        <v>0.56159999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>0.6227</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="3">
+        <v>0.62270000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>0.5227</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="3">
+        <v>0.52270000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>0.6031</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="3">
+        <v>0.60309999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>0.6334</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="3">
+        <v>0.63339999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>0.6922</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="3">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="3">
         <v>0.6845</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>0.6679</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="3">
+        <v>0.66790000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E45" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,264 +1238,264 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3" t="n">
-        <v>0.5843</v>
+      <c r="G46" s="3">
+        <v>0.58430000000000004</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="3" t="n">
-        <v>0.5843</v>
-      </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q46" s="3">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>0.7584</v>
+      <c r="G47" s="3">
+        <v>0.75839999999999996</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q47" s="3" t="n">
-        <v>0.7067</v>
-      </c>
-      <c r="R47" s="3" t="n">
-        <v>0.7945</v>
-      </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q47" s="3">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>0.7199</v>
+      <c r="G48" s="3">
+        <v>0.71989999999999998</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3" t="n">
-        <v>0.6327</v>
-      </c>
-      <c r="R48" s="3" t="n">
-        <v>0.7539</v>
-      </c>
-      <c r="S48" s="3" t="n">
-        <v>0.6092</v>
-      </c>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q48" s="3">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="3" t="n">
-        <v>0.7945</v>
+      <c r="G49" s="3">
+        <v>0.79449999999999998</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q49" s="3" t="n">
-        <v>0.8132</v>
-      </c>
-      <c r="R49" s="3" t="n">
+      <c r="Q49" s="3">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="R49" s="3">
         <v>0.7994</v>
       </c>
-      <c r="S49" s="3" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="T49" s="3" t="n">
+      <c r="S49" s="3">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="T49" s="3">
         <v>0.8075</v>
       </c>
-      <c r="U49" s="4"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>0.7678</v>
+      <c r="G50" s="3">
+        <v>0.76780000000000004</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="3" t="n">
-        <v>0.8631</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="S50" s="3" t="n">
-        <v>0.854</v>
-      </c>
-      <c r="T50" s="3" t="n">
-        <v>0.8676</v>
-      </c>
-      <c r="U50" s="3" t="n">
-        <v>0.8696</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q50" s="3">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="3" t="n">
-        <v>0.4519</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="3">
+        <v>0.45190000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="3" t="n">
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="3" t="n">
-        <v>0.5317</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="3">
+        <v>0.53169999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="3" t="n">
-        <v>0.6092</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="3">
+        <v>0.60919999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="3" t="n">
-        <v>0.7693</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="3">
+        <v>0.76929999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="3">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="3" t="n">
-        <v>0.7597</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="3">
+        <v>0.75970000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="3" t="n">
-        <v>0.7796</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="3">
+        <v>0.77959999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="3" t="n">
-        <v>0.7849</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="3">
+        <v>0.78490000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="3" t="n">
-        <v>0.8109</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="3">
+        <v>0.81089999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="3" t="n">
-        <v>0.8696</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="3">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="3" t="n">
-        <v>0.8469</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="3">
+        <v>0.84689999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E70" s="2" t="s">
         <v>0</v>
       </c>
@@ -1217,14 +1506,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E71" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="3" t="n">
+      <c r="G71" s="3">
         <v>0.4289</v>
       </c>
       <c r="P71" s="2" t="s">
@@ -1243,187 +1532,187 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="3" t="n">
-        <v>0.4939</v>
+      <c r="G72" s="3">
+        <v>0.49390000000000001</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q72" s="3" t="n">
+      <c r="Q72" s="3">
         <v>0.4289</v>
       </c>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="3" t="n">
-        <v>0.4752</v>
+      <c r="G73" s="3">
+        <v>0.47520000000000001</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q73" s="3" t="n">
+      <c r="Q73" s="3">
         <v>0.4955</v>
       </c>
-      <c r="R73" s="3" t="n">
-        <v>0.5571</v>
-      </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R73" s="3">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="3" t="n">
-        <v>0.5571</v>
+      <c r="G74" s="3">
+        <v>0.55710000000000004</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q74" s="3" t="n">
-        <v>0.3688</v>
-      </c>
-      <c r="R74" s="3" t="n">
+      <c r="Q74" s="3">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="R74" s="3">
         <v>0.52</v>
       </c>
-      <c r="S74" s="3" t="n">
-        <v>0.3844</v>
-      </c>
-      <c r="T74" s="4"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S74" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="3" t="n">
-        <v>0.5259</v>
+      <c r="G75" s="3">
+        <v>0.52590000000000003</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q75" s="3" t="n">
+      <c r="Q75" s="3">
         <v>0.6048</v>
       </c>
-      <c r="R75" s="3" t="n">
-        <v>0.5769</v>
-      </c>
-      <c r="S75" s="3" t="n">
-        <v>0.5024</v>
-      </c>
-      <c r="T75" s="3" t="n">
-        <v>0.6227</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R75" s="3">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0.62270000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="3" t="n">
-        <v>0.3581</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="3">
+        <v>0.35809999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="3" t="n">
-        <v>0.3739</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="3">
+        <v>0.37390000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="3" t="n">
-        <v>0.3113</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="3">
+        <v>0.31130000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="3" t="n">
-        <v>0.3844</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="3" t="n">
-        <v>0.5616</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="3">
+        <v>0.56159999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="3" t="n">
-        <v>0.6227</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G81" s="3">
+        <v>0.62270000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="3" t="n">
-        <v>0.5227</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="3">
+        <v>0.52270000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="3" t="n">
-        <v>0.6031</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="3">
+        <v>0.60309999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E106" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,204 +1738,204 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="3" t="n">
-        <v>0.5843</v>
+      <c r="G107" s="3">
+        <v>0.58430000000000004</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q107" s="3" t="n">
-        <v>0.5843</v>
-      </c>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q107" s="3">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="3" t="n">
-        <v>0.7584</v>
+      <c r="G108" s="3">
+        <v>0.75839999999999996</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q108" s="3" t="n">
-        <v>0.7067</v>
-      </c>
-      <c r="R108" s="3" t="n">
-        <v>0.7945</v>
-      </c>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q108" s="3">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="R108" s="3">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="3" t="n">
-        <v>0.7199</v>
+      <c r="G109" s="3">
+        <v>0.71989999999999998</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q109" s="3" t="n">
-        <v>0.6327</v>
-      </c>
-      <c r="R109" s="3" t="n">
-        <v>0.7539</v>
-      </c>
-      <c r="S109" s="3" t="n">
-        <v>0.6092</v>
-      </c>
-      <c r="T109" s="4"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q109" s="3">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="R109" s="3">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="S109" s="3">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="3" t="n">
-        <v>0.7945</v>
+      <c r="G110" s="3">
+        <v>0.79449999999999998</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q110" s="3" t="n">
-        <v>0.8132</v>
-      </c>
-      <c r="R110" s="3" t="n">
+      <c r="Q110" s="3">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="R110" s="3">
         <v>0.7994</v>
       </c>
-      <c r="S110" s="3" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="T110" s="3" t="n">
+      <c r="S110" s="3">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="T110" s="3">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="3" t="n">
-        <v>0.7678</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G111" s="3">
+        <v>0.76780000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="3" t="n">
-        <v>0.4519</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G112" s="3">
+        <v>0.45190000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G113" s="3" t="n">
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G113" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="3" t="n">
-        <v>0.5317</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G114" s="3">
+        <v>0.53169999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="3" t="n">
-        <v>0.6092</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G115" s="3">
+        <v>0.60919999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="3" t="n">
-        <v>0.7693</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G116" s="3">
+        <v>0.76929999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E117" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="3" t="n">
+      <c r="G117" s="3">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="3" t="n">
-        <v>0.7597</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G118" s="3">
+        <v>0.75970000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="3" t="n">
-        <v>0.7796</v>
+      <c r="G119" s="3">
+        <v>0.77959999999999996</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G46:G62">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1656,9 +1945,9 @@
   <conditionalFormatting sqref="G45:G62">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1668,9 +1957,9 @@
   <conditionalFormatting sqref="G9:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1680,9 +1969,9 @@
   <conditionalFormatting sqref="G10:G26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1692,9 +1981,9 @@
   <conditionalFormatting sqref="Q46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1704,9 +1993,9 @@
   <conditionalFormatting sqref="R47">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1716,9 +2005,9 @@
   <conditionalFormatting sqref="S48">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1728,9 +2017,9 @@
   <conditionalFormatting sqref="T49">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1740,9 +2029,9 @@
   <conditionalFormatting sqref="U50">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1752,9 +2041,9 @@
   <conditionalFormatting sqref="Q46:U50">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1764,9 +2053,9 @@
   <conditionalFormatting sqref="Q11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1776,9 +2065,9 @@
   <conditionalFormatting sqref="R12">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1788,9 +2077,9 @@
   <conditionalFormatting sqref="S13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1800,9 +2089,9 @@
   <conditionalFormatting sqref="T14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1812,9 +2101,9 @@
   <conditionalFormatting sqref="U15">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1824,9 +2113,9 @@
   <conditionalFormatting sqref="Q11:U15">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1836,9 +2125,9 @@
   <conditionalFormatting sqref="G107:G119">
     <cfRule type="colorScale" priority="18">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1848,9 +2137,9 @@
   <conditionalFormatting sqref="G106:G119">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1860,9 +2149,9 @@
   <conditionalFormatting sqref="G70:G83">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1872,9 +2161,9 @@
   <conditionalFormatting sqref="G71:G83">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1884,9 +2173,9 @@
   <conditionalFormatting sqref="Q107">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1896,9 +2185,9 @@
   <conditionalFormatting sqref="R108">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1908,9 +2197,9 @@
   <conditionalFormatting sqref="S109">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1920,9 +2209,9 @@
   <conditionalFormatting sqref="T110">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1932,9 +2221,9 @@
   <conditionalFormatting sqref="Q107:T110">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -1944,9 +2233,9 @@
   <conditionalFormatting sqref="Q72">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1956,9 +2245,9 @@
   <conditionalFormatting sqref="R73">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1968,9 +2257,9 @@
   <conditionalFormatting sqref="S74">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1980,9 +2269,9 @@
   <conditionalFormatting sqref="T75">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
@@ -1992,23 +2281,18 @@
   <conditionalFormatting sqref="Q72:T75">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2018,34 +2302,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B9:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2065,104 +2338,104 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1.608</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="C10" s="2">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="C11" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E12" s="2">
         <v>1.661</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>0.075</v>
+      <c r="F12" s="2">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F13" s="2">
         <v>2.427</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <f aca="false">1-(SUM(C11:C13)/SUM(C10:C13)*100)%</f>
+      <c r="C14" s="3">
+        <f>1-(SUM(C11:C13)/SUM(C10:C13)*100)%</f>
         <v>0.649172385950747</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <f aca="false">1-(SUM(D10,D12:D13)/SUM(D10:D13)*100)%</f>
-        <v>0.211806940566414</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <f aca="false">1-(SUM(E10:E11,E13)/SUM(E10:E13)*100)%</f>
-        <v>0.660700079554495</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <f aca="false">1-(SUM(F10:F12)/SUM(F10:F13)*100)%</f>
-        <v>0.970023980815348</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <f aca="false">(SUM(C10,D11,E12,F13)/SUM(C10:F13))</f>
-        <v>0.6227</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="3">
+        <f>1-(SUM(D10,D12:D13)/SUM(D10:D13)*100)%</f>
+        <v>0.21180694056641414</v>
+      </c>
+      <c r="E14" s="3">
+        <f>1-(SUM(E10:E11,E13)/SUM(E10:E13)*100)%</f>
+        <v>0.66070007955449483</v>
+      </c>
+      <c r="F14" s="3">
+        <f>1-(SUM(F10:F12)/SUM(F10:F13)*100)%</f>
+        <v>0.97002398081534769</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(SUM(C10,D11,E12,F13)/SUM(C10:F13))</f>
+        <v>0.62270000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2179,73 +2452,73 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="2">
+        <v>3.8290000000000002</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.628</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>1.161</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>1.793</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0.072</v>
+      <c r="D20" s="2">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>2.453</v>
+      <c r="D21" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.4529999999999998</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <f aca="false">1-(SUM(C20:C21)/SUM(C19:C21)*100)%</f>
-        <v>0.767334669338677</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <f aca="false">1-(SUM(D19,D21)/SUM(D19:D21)*100)%</f>
-        <v>0.721529175050302</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <f aca="false">1-(SUM(E19:E20)/SUM(E19:E21)*100)%</f>
-        <v>0.971485148514851</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <f aca="false">SUM(C19,D20,E21)/SUM(C19:E21)</f>
-        <v>0.8075</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3">
+        <f>1-(SUM(C20:C21)/SUM(C19:C21)*100)%</f>
+        <v>0.76733466933867733</v>
+      </c>
+      <c r="D22" s="3">
+        <f>1-(SUM(D19,D21)/SUM(D19:D21)*100)%</f>
+        <v>0.7215291750503019</v>
+      </c>
+      <c r="E22" s="3">
+        <f>1-(SUM(E19:E20)/SUM(E19:E21)*100)%</f>
+        <v>0.97148514851485146</v>
+      </c>
+      <c r="F22" s="3">
+        <f>SUM(C19,D20,E21)/SUM(C19:E21)</f>
+        <v>0.80749999999999988</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,124 +2538,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="6" t="n">
-        <f aca="false">C28/SUM(C28:F28)</f>
-        <v>0.846153846153846</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="3">
+        <f>C28/SUM(C28:F28)</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>30</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>11</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="6" t="n">
-        <f aca="false">D29/SUM(C29:F29)</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="3">
+        <f>D29/SUM(C29:F29)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>6</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>97</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>13</v>
       </c>
-      <c r="G30" s="6" t="n">
-        <f aca="false">E30/SUM(C30:F30)</f>
-        <v>0.836206896551724</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="3">
+        <f>E30/SUM(C30:F30)</f>
+        <v>0.83620689655172409</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>2</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>12</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>99</v>
       </c>
-      <c r="G31" s="6" t="n">
-        <f aca="false">F31/SUM(C31:F31)</f>
-        <v>0.876106194690265</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="3">
+        <f>F31/SUM(C31:F31)</f>
+        <v>0.87610619469026552</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="3" t="n">
-        <f aca="false">1-(SUM(C29:C31)/SUM(C28:C31)*100)%</f>
-        <v>0.785714285714286</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <f aca="false">1-(SUM(D28,D30:D31)/SUM(D28:D31)*100)%</f>
+      <c r="C32" s="3">
+        <f>1-(SUM(C29:C31)/SUM(C28:C31)*100)%</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D32" s="3">
+        <f>1-(SUM(D28,D30:D31)/SUM(D28:D31)*100)%</f>
         <v>0.75</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <f aca="false">1-(SUM(E28:E29,E31)/SUM(E28:E31)*100)%</f>
-        <v>0.808333333333333</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <f aca="false">1-(SUM(F28:F30)/SUM(F28:F31)*100)%</f>
-        <v>0.876106194690265</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <f aca="false">(SUM(C28,D29,E30,F31)/SUM(C28:F31))</f>
-        <v>0.825783972125435</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E32" s="3">
+        <f>1-(SUM(E28:E29,E31)/SUM(E28:E31)*100)%</f>
+        <v>0.80833333333333335</v>
+      </c>
+      <c r="F32" s="3">
+        <f>1-(SUM(F28:F30)/SUM(F28:F31)*100)%</f>
+        <v>0.87610619469026552</v>
+      </c>
+      <c r="G32" s="3">
+        <f>(SUM(C28,D29,E30,F31)/SUM(C28:F31))</f>
+        <v>0.82578397212543553</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C14:G14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2392,9 +2663,9 @@
   <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2404,9 +2675,9 @@
   <conditionalFormatting sqref="C22:F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2416,9 +2687,9 @@
   <conditionalFormatting sqref="C32:F32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2428,9 +2699,9 @@
   <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2440,19 +2711,18 @@
   <conditionalFormatting sqref="G28:G31">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00CC00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2460,25 +2730,1980 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000C69D5-C076-41C4-BD7A-90590A6574A2}">
+  <dimension ref="B2:U43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f>C4/SUM(C4:F4)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f>J4/SUM(J4:M4)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3">
+        <f>Q4/SUM(Q4:T4)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/SUM(C5:F5)</f>
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <f>K5/SUM(J5:M5)</f>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>28</v>
+      </c>
+      <c r="S5" s="2">
+        <v>15</v>
+      </c>
+      <c r="T5" s="2">
+        <v>3</v>
+      </c>
+      <c r="U5" s="3">
+        <f>R5/SUM(Q5:T5)</f>
+        <v>0.5957446808510638</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <f>E6/SUM(C6:F6)</f>
+        <v>0.78899082568807344</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>93</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8</v>
+      </c>
+      <c r="N6" s="3">
+        <f>L6/SUM(J6:M6)</f>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6</v>
+      </c>
+      <c r="S6" s="2">
+        <v>90</v>
+      </c>
+      <c r="T6" s="2">
+        <v>15</v>
+      </c>
+      <c r="U6" s="3">
+        <f>S6/SUM(Q6:T6)</f>
+        <v>0.81081081081081086</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>93</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7/SUM(C7:F7)</f>
+        <v>0.86915887850467288</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>15</v>
+      </c>
+      <c r="M7" s="2">
+        <v>94</v>
+      </c>
+      <c r="N7" s="3">
+        <f>M7/SUM(J7:M7)</f>
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>17</v>
+      </c>
+      <c r="T7" s="2">
+        <v>90</v>
+      </c>
+      <c r="U7" s="3">
+        <f>T7/SUM(Q7:T7)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <f>1-(SUM(C5:C7)/SUM(C4:C7)*100)%</f>
+        <v>0.875</v>
+      </c>
+      <c r="D8" s="3">
+        <f>1-(SUM(D4,D6:D7)/SUM(D4:D7)*100)%</f>
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="E8" s="3">
+        <f>1-(SUM(E4:E5,E7)/SUM(E4:E7)*100)%</f>
+        <v>0.75438596491228072</v>
+      </c>
+      <c r="F8" s="3">
+        <f>1-(SUM(F4:F6)/SUM(F4:F7)*100)%</f>
+        <v>0.80172413793103448</v>
+      </c>
+      <c r="G8" s="3">
+        <f>(SUM(C4,D5,E6,F7)/SUM(C4:F7))</f>
+        <v>0.78048780487804881</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <f>1-(SUM(J5:J7)/SUM(J4:J7)*100)%</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K8" s="3">
+        <f>1-(SUM(K4,K6:K7)/SUM(K4:K7)*100)%</f>
+        <v>0.625</v>
+      </c>
+      <c r="L8" s="3">
+        <f>1-(SUM(L4:L5,L7)/SUM(L4:L7)*100)%</f>
+        <v>0.7265625</v>
+      </c>
+      <c r="M8" s="3">
+        <f>1-(SUM(M4:M6)/SUM(M4:M7)*100)%</f>
+        <v>0.90384615384615385</v>
+      </c>
+      <c r="N8" s="3">
+        <f>(SUM(J4,K5,L6,M7)/SUM(J4:M7))</f>
+        <v>0.78745644599303133</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>1-(SUM(Q5:Q7)/SUM(Q4:Q7)*100)%</f>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="R8" s="3">
+        <f>1-(SUM(R4,R6:R7)/SUM(R4:R7)*100)%</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="S8" s="3">
+        <f>1-(SUM(S4:S5,S7)/SUM(S4:S7)*100)%</f>
+        <v>0.72</v>
+      </c>
+      <c r="T8" s="3">
+        <f>1-(SUM(T4:T6)/SUM(T4:T7)*100)%</f>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="U8" s="3">
+        <f>(SUM(Q4,R5,S6,T7)/SUM(Q4:T7))</f>
+        <v>0.74564459930313587</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <f>C13/SUM(C13:F13)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f>J13/SUM(J13:M13)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>7</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <f>Q13/SUM(Q13:T13)</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <f>D14/SUM(C14:F14)</f>
+        <v>0.68085106382978722</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2">
+        <v>28</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6</v>
+      </c>
+      <c r="N14" s="3">
+        <f>K14/SUM(J14:M14)</f>
+        <v>0.453125</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2">
+        <v>25</v>
+      </c>
+      <c r="S14" s="2">
+        <v>12</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
+        <f>R14/SUM(Q14:T14)</f>
+        <v>0.58139534883720934</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <f>E15/SUM(C15:F15)</f>
+        <v>0.73109243697478987</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>88</v>
+      </c>
+      <c r="M15" s="2">
+        <v>16</v>
+      </c>
+      <c r="N15" s="3">
+        <f>L15/SUM(J15:M15)</f>
+        <v>0.83018867924528306</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" s="2">
+        <v>19</v>
+      </c>
+      <c r="U15" s="3">
+        <f>S15/SUM(Q15:T15)</f>
+        <v>0.76767676767676762</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" s="3">
+        <f>F16/SUM(C16:F16)</f>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>12</v>
+      </c>
+      <c r="M16" s="2">
+        <v>93</v>
+      </c>
+      <c r="N16" s="3">
+        <f>M16/SUM(J16:M16)</f>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>26</v>
+      </c>
+      <c r="T16" s="2">
+        <v>105</v>
+      </c>
+      <c r="U16" s="3">
+        <f>T16/SUM(Q16:T16)</f>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <f>1-(SUM(C14:C16)/SUM(C13:C16)*100)%</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D17" s="3">
+        <f>1-(SUM(D13,D15:D16)/SUM(D13:D16)*100)%</f>
+        <v>0.64</v>
+      </c>
+      <c r="E17" s="3">
+        <f>1-(SUM(E13:E14,E16)/SUM(E13:E16)*100)%</f>
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="3">
+        <f>1-(SUM(F13:F15)/SUM(F13:F16)*100)%</f>
+        <v>0.78181818181818186</v>
+      </c>
+      <c r="G17" s="3">
+        <f>(SUM(C13,D14,E15,F16)/SUM(C13:F16))</f>
+        <v>0.73519163763066198</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <f>1-(SUM(J14:J16)/SUM(J13:J16)*100)%</f>
+        <v>0.875</v>
+      </c>
+      <c r="K17" s="3">
+        <f>1-(SUM(K13,K15:K16)/SUM(K13:K16)*100)%</f>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="L17" s="3">
+        <f>1-(SUM(L13:L14,L16)/SUM(L13:L16)*100)%</f>
+        <v>0.6875</v>
+      </c>
+      <c r="M17" s="3">
+        <f>1-(SUM(M13:M15)/SUM(M13:M16)*100)%</f>
+        <v>0.80869565217391304</v>
+      </c>
+      <c r="N17" s="3">
+        <f>(SUM(J13,K14,L15,M16)/SUM(J13:M16))</f>
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>1-(SUM(Q14:Q16)/SUM(Q13:Q16)*100)%</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="R17" s="3">
+        <f>1-(SUM(R13,R15:R16)/SUM(R13:R16)*100)%</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="S17" s="3">
+        <f>1-(SUM(S13:S14,S16)/SUM(S13:S16)*100)%</f>
+        <v>0.66086956521739126</v>
+      </c>
+      <c r="T17" s="3">
+        <f>1-(SUM(T13:T15)/SUM(T13:T16)*100)%</f>
+        <v>0.8203125</v>
+      </c>
+      <c r="U17" s="3">
+        <f>(SUM(Q13,R14,S15,T16)/SUM(Q13:T16))</f>
+        <v>0.74216027874564461</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <f>C22/SUM(C22:F22)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <f>J22/SUM(J22:M22)</f>
+        <v>0.4</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>7</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <f>Q22/SUM(Q22:T22)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <f>D23/SUM(C23:F23)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
+        <v>19</v>
+      </c>
+      <c r="M23" s="2">
+        <v>6</v>
+      </c>
+      <c r="N23" s="3">
+        <f>K23/SUM(J23:M23)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>38</v>
+      </c>
+      <c r="S23" s="2">
+        <v>18</v>
+      </c>
+      <c r="T23" s="2">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3">
+        <f>R23/SUM(Q23:T23)</f>
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>94</v>
+      </c>
+      <c r="F24" s="2">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <f>E24/SUM(C24:F24)</f>
+        <v>0.77049180327868849</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>12</v>
+      </c>
+      <c r="L24" s="2">
+        <v>94</v>
+      </c>
+      <c r="M24" s="2">
+        <v>16</v>
+      </c>
+      <c r="N24" s="3">
+        <f>L24/SUM(J24:M24)</f>
+        <v>0.77049180327868849</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>3</v>
+      </c>
+      <c r="S24" s="2">
+        <v>72</v>
+      </c>
+      <c r="T24" s="2">
+        <v>24</v>
+      </c>
+      <c r="U24" s="3">
+        <f>S24/SUM(Q24:T24)</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3">
+        <f>F25/SUM(C25:F25)</f>
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>11</v>
+      </c>
+      <c r="M25" s="2">
+        <v>78</v>
+      </c>
+      <c r="N25" s="3">
+        <f>M25/SUM(J25:M25)</f>
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>19</v>
+      </c>
+      <c r="T25" s="2">
+        <v>95</v>
+      </c>
+      <c r="U25" s="3">
+        <f>T25/SUM(Q25:T25)</f>
+        <v>0.82608695652173914</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <f>1-(SUM(C23:C25)/SUM(C22:C25)*100)%</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D26" s="3">
+        <f>1-(SUM(D22,D24:D25)/SUM(D22:D25)*100)%</f>
+        <v>0.46511627906976749</v>
+      </c>
+      <c r="E26" s="3">
+        <f>1-(SUM(E22:E23,E25)/SUM(E22:E25)*100)%</f>
+        <v>0.74015748031496065</v>
+      </c>
+      <c r="F26" s="3">
+        <f>1-(SUM(F22:F24)/SUM(F22:F25)*100)%</f>
+        <v>0.75728155339805825</v>
+      </c>
+      <c r="G26" s="3">
+        <f>(SUM(C22,D23,E24,F25)/SUM(C22:F25))</f>
+        <v>0.70383275261324041</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <f>1-(SUM(J23:J25)/SUM(J22:J25)*100)%</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K26" s="3">
+        <f>1-(SUM(K22,K24:K25)/SUM(K22:K25)*100)%</f>
+        <v>0.46511627906976749</v>
+      </c>
+      <c r="L26" s="3">
+        <f>1-(SUM(L22:L23,L25)/SUM(L22:L25)*100)%</f>
+        <v>0.74015748031496065</v>
+      </c>
+      <c r="M26" s="3">
+        <f>1-(SUM(M22:M24)/SUM(M22:M25)*100)%</f>
+        <v>0.75728155339805825</v>
+      </c>
+      <c r="N26" s="3">
+        <f>(SUM(J22,K23,L24,M25)/SUM(J22:M25))</f>
+        <v>0.70383275261324041</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>1-(SUM(Q23:Q25)/SUM(Q22:Q25)*100)%</f>
+        <v>0.53846153846153855</v>
+      </c>
+      <c r="R26" s="3">
+        <f>1-(SUM(R22,R24:R25)/SUM(R22:R25)*100)%</f>
+        <v>0.88372093023255816</v>
+      </c>
+      <c r="S26" s="3">
+        <f>1-(SUM(S22:S23,S25)/SUM(S22:S25)*100)%</f>
+        <v>0.66055045871559626</v>
+      </c>
+      <c r="T26" s="3">
+        <f>1-(SUM(T22:T24)/SUM(T22:T25)*100)%</f>
+        <v>0.77868852459016391</v>
+      </c>
+      <c r="U26" s="3">
+        <f>(SUM(Q22,R23,S24,T25)/SUM(Q22:T25))</f>
+        <v>0.73867595818815335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <f>C31/SUM(C31:F31)</f>
+        <v>0.36</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2">
+        <v>9</v>
+      </c>
+      <c r="L31" s="2">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
+        <f>J31/SUM(J31:M31)</f>
+        <v>0.36</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>10</v>
+      </c>
+      <c r="R31" s="2">
+        <v>8</v>
+      </c>
+      <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <f>Q31/SUM(Q31:T31)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2">
+        <v>28</v>
+      </c>
+      <c r="F32" s="2">
+        <v>6</v>
+      </c>
+      <c r="G32" s="3">
+        <f>D32/SUM(C32:F32)</f>
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>21</v>
+      </c>
+      <c r="L32" s="2">
+        <v>28</v>
+      </c>
+      <c r="M32" s="2">
+        <v>6</v>
+      </c>
+      <c r="N32" s="3">
+        <f>K32/SUM(J32:M32)</f>
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2</v>
+      </c>
+      <c r="R32" s="2">
+        <v>27</v>
+      </c>
+      <c r="S32" s="2">
+        <v>27</v>
+      </c>
+      <c r="T32" s="2">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
+        <f>R32/SUM(Q32:T32)</f>
+        <v>0.4576271186440678</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>67</v>
+      </c>
+      <c r="F33" s="2">
+        <v>11</v>
+      </c>
+      <c r="G33" s="3">
+        <f>E33/SUM(C33:F33)</f>
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>7</v>
+      </c>
+      <c r="L33" s="2">
+        <v>67</v>
+      </c>
+      <c r="M33" s="2">
+        <v>11</v>
+      </c>
+      <c r="N33" s="3">
+        <f>L33/SUM(J33:M33)</f>
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>68</v>
+      </c>
+      <c r="T33" s="2">
+        <v>14</v>
+      </c>
+      <c r="U33" s="3">
+        <f>S33/SUM(Q33:T33)</f>
+        <v>0.81927710843373491</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2">
+        <v>94</v>
+      </c>
+      <c r="G34" s="3">
+        <f>F34/SUM(C34:F34)</f>
+        <v>0.78991596638655459</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>3</v>
+      </c>
+      <c r="L34" s="2">
+        <v>22</v>
+      </c>
+      <c r="M34" s="2">
+        <v>94</v>
+      </c>
+      <c r="N34" s="3">
+        <f>M34/SUM(J34:M34)</f>
+        <v>0.78991596638655459</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2</v>
+      </c>
+      <c r="S34" s="2">
+        <v>23</v>
+      </c>
+      <c r="T34" s="2">
+        <v>100</v>
+      </c>
+      <c r="U34" s="3">
+        <f>T34/SUM(Q34:T34)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <f>1-(SUM(C32:C34)/SUM(C31:C34)*100)%</f>
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="3">
+        <f>1-(SUM(D31,D33:D34)/SUM(D31:D34)*100)%</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E35" s="3">
+        <f>1-(SUM(E31:E32,E34)/SUM(E31:E34)*100)%</f>
+        <v>0.54918032786885251</v>
+      </c>
+      <c r="F35" s="3">
+        <f>1-(SUM(F31:F33)/SUM(F31:F34)*100)%</f>
+        <v>0.83185840707964598</v>
+      </c>
+      <c r="G35" s="3">
+        <f>(SUM(C31,D32,E33,F34)/SUM(C31:F34))</f>
+        <v>0.66550522648083621</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
+        <f>1-(SUM(J32:J34)/SUM(J31:J34)*100)%</f>
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="3">
+        <f>1-(SUM(K31,K33:K34)/SUM(K31:K34)*100)%</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L35" s="3">
+        <f>1-(SUM(L31:L32,L34)/SUM(L31:L34)*100)%</f>
+        <v>0.54918032786885251</v>
+      </c>
+      <c r="M35" s="3">
+        <f>1-(SUM(M31:M33)/SUM(M31:M34)*100)%</f>
+        <v>0.83185840707964598</v>
+      </c>
+      <c r="N35" s="3">
+        <f>(SUM(J31,K32,L33,M34)/SUM(J31:M34))</f>
+        <v>0.66550522648083621</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>1-(SUM(Q32:Q34)/SUM(Q31:Q34)*100)%</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R35" s="3">
+        <f>1-(SUM(R31,R33:R34)/SUM(R31:R34)*100)%</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="S35" s="3">
+        <f>1-(SUM(S31:S32,S34)/SUM(S31:S34)*100)%</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="T35" s="3">
+        <f>1-(SUM(T31:T33)/SUM(T31:T34)*100)%</f>
+        <v>0.85470085470085466</v>
+      </c>
+      <c r="U35" s="3">
+        <f>(SUM(Q31,R32,S33,T34)/SUM(Q31:T34))</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P43" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C8:F8">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:F17">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:M8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:M17">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N16">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:T8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U7">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:T17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13:U16">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:F26">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:F35">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G34">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:M26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:M35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:N34">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:T26">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22:U25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:T35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U35">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31:U34">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00CC00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2513,178 +4738,171 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="2">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="C2" s="2">
         <v>1.331</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>4.084</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="I2" s="2">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="B3" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="I3" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J3" s="2">
         <v>2.157</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>0.112</v>
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="B4" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>0.01</v>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>2.455</v>
+      <c r="K4" s="2">
+        <v>2.4550000000000001</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2.353</v>
+      <c r="D5" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.3530000000000002</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <f aca="false">1-(SUM(I3:I4)/SUM(I2:I4)*100)%</f>
-        <v>0.819751103974308</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <f aca="false">1-(SUM(J2,J4)/SUM(J2:J4)*100)%</f>
-        <v>0.880048959608323</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <f aca="false">1-(SUM(K2:K3)/SUM(K2:K4)*100)%</f>
-        <v>0.956369302687963</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <f aca="false">SUM(I2,J3,K4)/SUM(I2:K4)</f>
-        <v>0.8696</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="3">
+        <f>1-(SUM(I3:I4)/SUM(I2:I4)*100)%</f>
+        <v>0.8197511039743075</v>
+      </c>
+      <c r="J5" s="3">
+        <f>1-(SUM(J2,J4)/SUM(J2:J4)*100)%</f>
+        <v>0.88004895960832319</v>
+      </c>
+      <c r="K5" s="3">
+        <f>1-(SUM(K2:K3)/SUM(K2:K4)*100)%</f>
+        <v>0.95636930268796261</v>
+      </c>
+      <c r="L5" s="3">
+        <f>SUM(I2,J3,K4)/SUM(I2:K4)</f>
+        <v>0.86959999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <f aca="false">1-(SUM(B3:B5)/SUM(B2:B5)*100)%</f>
-        <v>0.776913630781826</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <f aca="false">1-(SUM(C2,C4:C5)/SUM(C2:C5)*100)%</f>
-        <v>0.307906237584426</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <f aca="false">1-(SUM(D2:D3,D5)/SUM(D2:D5)*100)%</f>
-        <v>0.756282409254089</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <f aca="false">1-(SUM(E2:E4)/SUM(E2:E5)*100)%</f>
-        <v>0.928938018160284</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <f aca="false">(SUM(B2,C3,D4,E5)/SUM(B2:E5))</f>
-        <v>0.6922</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B6" s="3">
+        <f>1-(SUM(B3:B5)/SUM(B2:B5)*100)%</f>
+        <v>0.77691363078182563</v>
+      </c>
+      <c r="C6" s="3">
+        <f>1-(SUM(C2,C4:C5)/SUM(C2:C5)*100)%</f>
+        <v>0.30790623758442592</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1-(SUM(D2:D3,D5)/SUM(D2:D5)*100)%</f>
+        <v>0.75628240925408852</v>
+      </c>
+      <c r="E6" s="3">
+        <f>1-(SUM(E2:E4)/SUM(E2:E5)*100)%</f>
+        <v>0.92893801816028421</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(SUM(B2,C3,D4,E5)/SUM(B2:E5))</f>
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B6:F6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2694,9 +4912,9 @@
   <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00CC00"/>
@@ -2706,9 +4924,9 @@
   <conditionalFormatting sqref="I5:K5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF00A933"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFF0000"/>
@@ -2718,57 +4936,46 @@
   <conditionalFormatting sqref="I5:L5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00CC00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <tableParts>
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:G20"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B8:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2788,104 +4995,104 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0.002</v>
+      <c r="C9" s="2">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2E-3</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.214</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>0.215</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>0.004</v>
+      <c r="F10" s="2">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="C11" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.214</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="2">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.04</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>0.25</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2.483</v>
+      <c r="E12" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.4830000000000001</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <f aca="false">1-(SUM(C10:C12)/SUM(C9:C12)*100)%</f>
-        <v>0.727820152549177</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <f aca="false">1-(SUM(D9,D11:D12)/SUM(D9:D12)*100)%</f>
-        <v>0.0848532910388581</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <f aca="false">1-(SUM(E9:E10,E12)/SUM(E9:E12)*100)%</f>
-        <v>0.431651749389748</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <f aca="false">1-(SUM(F9:F11)/SUM(F9:F12)*100)%</f>
-        <v>0.981810992487149</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <f aca="false">SUM(C9,D10,E11,F12)/SUM(C9:F12)</f>
-        <v>0.5571</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3">
+        <f>1-(SUM(C10:C12)/SUM(C9:C12)*100)%</f>
+        <v>0.72782015254917709</v>
+      </c>
+      <c r="D13" s="3">
+        <f>1-(SUM(D9,D11:D12)/SUM(D9:D12)*100)%</f>
+        <v>8.4853291038858081E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <f>1-(SUM(E9:E10,E12)/SUM(E9:E12)*100)%</f>
+        <v>0.43165174938974771</v>
+      </c>
+      <c r="F13" s="3">
+        <f>1-(SUM(F9:F11)/SUM(F9:F12)*100)%</f>
+        <v>0.98181099248714909</v>
+      </c>
+      <c r="G13" s="3">
+        <f>SUM(C9,D10,E11,F12)/SUM(C9:F12)</f>
+        <v>0.55709999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2902,79 +5109,79 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>4.003</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="2">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.84</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0.008</v>
+      <c r="E17" s="2">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>1.426</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0.025</v>
+      <c r="C18" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="C19" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="E19" s="2">
         <v>2.516</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <f aca="false">1-(SUM(C18:C19)/SUM(C17:C19)*100)%</f>
-        <v>0.813122080032501</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <f aca="false">1-(SUM(D17,D19)/SUM(D17:D19)*100)%</f>
-        <v>0.564082278481013</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <f aca="false">1-(SUM(E17:E18)/SUM(E17:E19)*100)%</f>
-        <v>0.987053746567281</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <f aca="false">SUM(C17,D18,E19)/SUM(C17:E19)</f>
-        <v>0.7945</v>
+      <c r="C20" s="3">
+        <f>1-(SUM(C18:C19)/SUM(C17:C19)*100)%</f>
+        <v>0.81312208003250053</v>
+      </c>
+      <c r="D20" s="3">
+        <f>1-(SUM(D17,D19)/SUM(D17:D19)*100)%</f>
+        <v>0.56408227848101267</v>
+      </c>
+      <c r="E20" s="3">
+        <f>1-(SUM(E17:E18)/SUM(E17:E19)*100)%</f>
+        <v>0.98705374656728129</v>
+      </c>
+      <c r="F20" s="3">
+        <f>SUM(C17,D18,E19)/SUM(C17:E19)</f>
+        <v>0.79449999999999998</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:G13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
@@ -2984,19 +5191,18 @@
   <conditionalFormatting sqref="C20:F20">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00A933"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
